--- a/s4.xlsx
+++ b/s4.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HTML\HSPT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="DxuFpyPgfpsdVQf/akWzbkoYtZD/RFspYnxTENG4Hq8EFyLLx6Wl0qMlfvy50pETHFMZMep11Hfg9DLKVybVsQ==" workbookSaltValue="JFMqKgPlBWH2YHpVXt9xgQ==" workbookSpinCount="100000" lockStructure="1"/>
+  <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="tOil1kl+8frO6jsxqRYzypb2MVUJmhK/erB0IlJW2QhPQ/mAEz6eCVMxIDmHAcxCTDB+JTv3pz7pK3GyaL2k+g==" workbookSaltValue="Z+XmXVVHD8X38h99cy/4lQ==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12105" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="s2" sheetId="1" state="hidden" r:id="rId1"/>
+    <sheet name="s4" sheetId="1" state="hidden" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>

--- a/s4.xlsx
+++ b/s4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HTML\HSPT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="tOil1kl+8frO6jsxqRYzypb2MVUJmhK/erB0IlJW2QhPQ/mAEz6eCVMxIDmHAcxCTDB+JTv3pz7pK3GyaL2k+g==" workbookSaltValue="Z+XmXVVHD8X38h99cy/4lQ==" workbookSpinCount="100000" lockStructure="1"/>
+  <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="6l8aPfFkt4IPlyS0Frh+QU8kdtOiSHjOeBJry6/Suej6d29/wHY52aiavp9meuu344zyOx2i/7vs+n2vaLQ4ug==" workbookSaltValue="8adMeRED4Szb+zgy2vrBww==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12105" firstSheet="1" activeTab="1"/>
   </bookViews>
@@ -2219,7 +2219,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA86"/>
   <sheetViews>
-    <sheetView topLeftCell="H55" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="U74" sqref="U74"/>
     </sheetView>
   </sheetViews>
@@ -5877,7 +5877,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
